--- a/data/trans_dic/P16A15-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A15-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,97%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>9,47; 13,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>18,46; 23,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>17,8; 23,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>20,58; 27,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>13,63; 17,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>22,03; 26,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>21,65; 27,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>27,96; 33,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>12,25; 15,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>21,32; 24,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>20,87; 25,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>26,14; 30,09</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,23%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,4; 4,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,78; 7,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>5,38; 7,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>9,28; 12,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,48; 4,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,21; 6,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>5,33; 7,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>9,04; 30,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,62; 3,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,86; 6,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>5,7; 7,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>9,69; 21,31</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,18%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,35; 5,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>4,56; 9,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>3,13; 7,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>7,27; 11,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,24; 4,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>2,05; 5,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,5; 4,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>7,61; 11,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,12; 4,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>3,58; 6,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,78; 5,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>8,01; 10,8</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,65%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,02; 6,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,27; 11,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>8,45; 10,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>11,42; 13,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,0; 8,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>11,19; 13,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,9; 12,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>13,77; 26,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>6,31; 7,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>10,52; 12,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>9,47; 10,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>13,06; 19,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A15-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>27,83%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,58; 27,15</t>
+          <t>20,45; 27,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,96; 33,07</t>
+          <t>28,0; 33,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,14; 30,09</t>
+          <t>26,04; 29,85</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>13,34%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,28; 12,0</t>
+          <t>6,92; 11,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,04; 30,89</t>
+          <t>8,67; 43,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,69; 21,31</t>
+          <t>8,77; 27,81</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,0%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,27; 11,31</t>
+          <t>7,09; 11,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,61; 11,13</t>
+          <t>7,51; 10,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,01; 10,8</t>
+          <t>7,88; 10,52</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>15,12%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,42; 13,63</t>
+          <t>8,79; 12,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,77; 26,95</t>
+          <t>13,4; 36,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,06; 19,56</t>
+          <t>12,15; 23,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A15-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,47; 13,48</t>
+          <t>9,52; 13,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,46; 23,45</t>
+          <t>18,42; 23,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,8; 23,67</t>
+          <t>18,05; 23,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,45; 27,18</t>
+          <t>20,73; 27,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,63; 17,57</t>
+          <t>13,58; 17,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,03; 26,84</t>
+          <t>22,17; 26,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,65; 27,39</t>
+          <t>21,74; 27,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,0; 33,02</t>
+          <t>28,28; 33,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,25; 15,01</t>
+          <t>12,23; 15,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,32; 24,88</t>
+          <t>21,32; 24,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,87; 25,04</t>
+          <t>20,87; 25,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,04; 29,85</t>
+          <t>25,95; 29,74</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,17</t>
+          <t>2,38; 4,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,78; 7,08</t>
+          <t>4,94; 7,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,38; 7,64</t>
+          <t>5,41; 7,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,92; 11,02</t>
+          <t>6,4; 10,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,38</t>
+          <t>2,48; 4,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,47</t>
+          <t>4,16; 6,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 7,72</t>
+          <t>5,28; 7,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,67; 43,87</t>
+          <t>8,67; 40,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 3,9</t>
+          <t>2,63; 3,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 6,48</t>
+          <t>4,86; 6,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,7; 7,34</t>
+          <t>5,61; 7,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,77; 27,81</t>
+          <t>8,82; 27,24</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,59</t>
+          <t>2,3; 5,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,56; 9,83</t>
+          <t>4,61; 10,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,02</t>
+          <t>3,17; 7,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,09; 11,17</t>
+          <t>7,17; 11,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,07</t>
+          <t>1,26; 4,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,95</t>
+          <t>2,04; 5,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,92</t>
+          <t>1,56; 5,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 10,92</t>
+          <t>7,42; 10,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,18</t>
+          <t>2,06; 4,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,95</t>
+          <t>3,69; 6,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,36</t>
+          <t>2,74; 5,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 10,52</t>
+          <t>7,75; 10,4</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 6,61</t>
+          <t>5,02; 6,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 11,39</t>
+          <t>9,17; 11,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,45; 10,48</t>
+          <t>8,33; 10,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,79; 12,67</t>
+          <t>8,93; 12,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 8,81</t>
+          <t>7,05; 8,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,19; 13,47</t>
+          <t>11,2; 13,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 12,16</t>
+          <t>10,04; 12,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,4; 36,04</t>
+          <t>13,33; 32,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,31; 7,46</t>
+          <t>6,21; 7,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,52; 12,07</t>
+          <t>10,52; 12,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,47; 10,97</t>
+          <t>9,48; 10,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,15; 23,27</t>
+          <t>12,31; 24,44</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>116707</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>204684</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>155730</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>122507</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>202758</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>326373</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>245685</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>229759</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>319465</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>531056</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>401415</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>352266</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>98260; 134419</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>179519; 232769</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>136190; 178191</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>106521; 139726</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>178535; 229140</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>295418; 357737</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>216265; 273089</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>212655; 250445</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>287101; 354996</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>491868; 576098</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>365091; 438180</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>328551; 376467</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>53782</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>115055</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>134057</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>215004</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>52543</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>92738</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>127774</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>388742</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>106325</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>207793</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>261831</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>603746</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>40220; 70013</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>96868; 141479</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>112272; 156580</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>146676; 251505</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>39314; 68938</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>72922; 111752</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>104965; 150893</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>193926; 912898</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>86349; 128030</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>180366; 238384</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>228184; 293788</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>399152; 1233283</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20161</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>32249</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>26641</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>57795</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11462</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16457</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16492</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>59907</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>31622</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>48706</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>43133</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>117702</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12661; 30553</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22136; 49507</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>17324; 39289</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>46395; 72920</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6011; 20028</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9328; 27269</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8581; 27817</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>49020; 71571</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21149; 44746</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>34579; 65336</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>30060; 58162</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>101349; 135938</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>944</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1495</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>190649</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>351988</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>316428</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>395306</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>266762</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>435567</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>389951</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>678408</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>457412</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>787555</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>706378</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1073714</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>164412; 217366</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>313078; 389609</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>281457; 352983</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>308155; 442600</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>238111; 297241</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>396748; 478160</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>354548; 432771</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>486674; 1176976</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>413344; 500464</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>731729; 841260</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>655373; 755921</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>873872; 1735370</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>